--- a/kihon_s/tableteigi_s.xlsx
+++ b/kihon_s/tableteigi_s.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>岡田</t>
+  </si>
+  <si>
+    <t>カラム追加</t>
   </si>
   <si>
     <t>DIブログアカウント</t>
@@ -798,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1439,6 +1442,21 @@
       <right style="thin">
         <color indexed="13"/>
       </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="13"/>
@@ -1451,7 +1469,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1605,6 +1623,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1914,6 +1938,9 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1956,7 +1983,7 @@
     <xf numFmtId="49" fontId="23" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1995,7 +2022,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>80644</xdr:rowOff>
     </xdr:from>
@@ -3299,7 +3326,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3310,12 +3337,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3326,12 +3353,12 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3342,12 +3369,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3358,12 +3385,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3374,12 +3401,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3390,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8087,11 +8114,15 @@
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="50"/>
+      <c r="F27" s="46">
+        <v>45168</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" t="s" s="42">
+        <v>20</v>
+      </c>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
@@ -10930,7 +10961,7 @@
       <c r="FT42" s="18"/>
     </row>
     <row r="43" ht="12.95" customHeight="1">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -10961,159 +10992,162 @@
       <c r="AC43" s="43"/>
       <c r="AD43" s="43"/>
       <c r="AE43" s="19"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="54"/>
-      <c r="BE43" s="54"/>
-      <c r="BF43" s="54"/>
-      <c r="BG43" s="54"/>
-      <c r="BH43" s="54"/>
-      <c r="BI43" s="54"/>
-      <c r="BJ43" s="54"/>
-      <c r="BK43" s="54"/>
-      <c r="BL43" s="54"/>
-      <c r="BM43" s="54"/>
-      <c r="BN43" s="54"/>
-      <c r="BO43" s="54"/>
-      <c r="BP43" s="54"/>
-      <c r="BQ43" s="54"/>
-      <c r="BR43" s="54"/>
-      <c r="BS43" s="54"/>
-      <c r="BT43" s="54"/>
-      <c r="BU43" s="54"/>
-      <c r="BV43" s="54"/>
-      <c r="BW43" s="54"/>
-      <c r="BX43" s="54"/>
-      <c r="BY43" s="54"/>
-      <c r="BZ43" s="54"/>
-      <c r="CA43" s="54"/>
-      <c r="CB43" s="54"/>
-      <c r="CC43" s="54"/>
-      <c r="CD43" s="54"/>
-      <c r="CE43" s="54"/>
-      <c r="CF43" s="54"/>
-      <c r="CG43" s="54"/>
-      <c r="CH43" s="54"/>
-      <c r="CI43" s="54"/>
-      <c r="CJ43" s="54"/>
-      <c r="CK43" s="54"/>
-      <c r="CL43" s="54"/>
-      <c r="CM43" s="54"/>
-      <c r="CN43" s="54"/>
-      <c r="CO43" s="54"/>
-      <c r="CP43" s="54"/>
-      <c r="CQ43" s="54"/>
-      <c r="CR43" s="54"/>
-      <c r="CS43" s="54"/>
-      <c r="CT43" s="54"/>
-      <c r="CU43" s="54"/>
-      <c r="CV43" s="54"/>
-      <c r="CW43" s="54"/>
-      <c r="CX43" s="54"/>
-      <c r="CY43" s="54"/>
-      <c r="CZ43" s="54"/>
-      <c r="DA43" s="54"/>
-      <c r="DB43" s="54"/>
-      <c r="DC43" s="54"/>
-      <c r="DD43" s="54"/>
-      <c r="DE43" s="54"/>
-      <c r="DF43" s="54"/>
-      <c r="DG43" s="54"/>
-      <c r="DH43" s="54"/>
-      <c r="DI43" s="54"/>
-      <c r="DJ43" s="54"/>
-      <c r="DK43" s="54"/>
-      <c r="DL43" s="54"/>
-      <c r="DM43" s="54"/>
-      <c r="DN43" s="54"/>
-      <c r="DO43" s="54"/>
-      <c r="DP43" s="54"/>
-      <c r="DQ43" s="54"/>
-      <c r="DR43" s="54"/>
-      <c r="DS43" s="54"/>
-      <c r="DT43" s="54"/>
-      <c r="DU43" s="54"/>
-      <c r="DV43" s="54"/>
-      <c r="DW43" s="54"/>
-      <c r="DX43" s="54"/>
-      <c r="DY43" s="54"/>
-      <c r="DZ43" s="54"/>
-      <c r="EA43" s="54"/>
-      <c r="EB43" s="54"/>
-      <c r="EC43" s="54"/>
-      <c r="ED43" s="54"/>
-      <c r="EE43" s="54"/>
-      <c r="EF43" s="54"/>
-      <c r="EG43" s="54"/>
-      <c r="EH43" s="54"/>
-      <c r="EI43" s="54"/>
-      <c r="EJ43" s="54"/>
-      <c r="EK43" s="54"/>
-      <c r="EL43" s="54"/>
-      <c r="EM43" s="54"/>
-      <c r="EN43" s="54"/>
-      <c r="EO43" s="54"/>
-      <c r="EP43" s="54"/>
-      <c r="EQ43" s="54"/>
-      <c r="ER43" s="54"/>
-      <c r="ES43" s="54"/>
-      <c r="ET43" s="54"/>
-      <c r="EU43" s="54"/>
-      <c r="EV43" s="54"/>
-      <c r="EW43" s="54"/>
-      <c r="EX43" s="54"/>
-      <c r="EY43" s="54"/>
-      <c r="EZ43" s="54"/>
-      <c r="FA43" s="54"/>
-      <c r="FB43" s="54"/>
-      <c r="FC43" s="54"/>
-      <c r="FD43" s="54"/>
-      <c r="FE43" s="54"/>
-      <c r="FF43" s="54"/>
-      <c r="FG43" s="54"/>
-      <c r="FH43" s="54"/>
-      <c r="FI43" s="54"/>
-      <c r="FJ43" s="54"/>
-      <c r="FK43" s="54"/>
-      <c r="FL43" s="54"/>
-      <c r="FM43" s="54"/>
-      <c r="FN43" s="54"/>
-      <c r="FO43" s="54"/>
-      <c r="FP43" s="54"/>
-      <c r="FQ43" s="54"/>
-      <c r="FR43" s="54"/>
-      <c r="FS43" s="54"/>
-      <c r="FT43" s="55"/>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
+      <c r="AX43" s="56"/>
+      <c r="AY43" s="56"/>
+      <c r="AZ43" s="56"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="56"/>
+      <c r="BD43" s="56"/>
+      <c r="BE43" s="56"/>
+      <c r="BF43" s="56"/>
+      <c r="BG43" s="56"/>
+      <c r="BH43" s="56"/>
+      <c r="BI43" s="56"/>
+      <c r="BJ43" s="56"/>
+      <c r="BK43" s="56"/>
+      <c r="BL43" s="56"/>
+      <c r="BM43" s="56"/>
+      <c r="BN43" s="56"/>
+      <c r="BO43" s="56"/>
+      <c r="BP43" s="56"/>
+      <c r="BQ43" s="56"/>
+      <c r="BR43" s="56"/>
+      <c r="BS43" s="56"/>
+      <c r="BT43" s="56"/>
+      <c r="BU43" s="56"/>
+      <c r="BV43" s="56"/>
+      <c r="BW43" s="56"/>
+      <c r="BX43" s="56"/>
+      <c r="BY43" s="56"/>
+      <c r="BZ43" s="56"/>
+      <c r="CA43" s="56"/>
+      <c r="CB43" s="56"/>
+      <c r="CC43" s="56"/>
+      <c r="CD43" s="56"/>
+      <c r="CE43" s="56"/>
+      <c r="CF43" s="56"/>
+      <c r="CG43" s="56"/>
+      <c r="CH43" s="56"/>
+      <c r="CI43" s="56"/>
+      <c r="CJ43" s="56"/>
+      <c r="CK43" s="56"/>
+      <c r="CL43" s="56"/>
+      <c r="CM43" s="56"/>
+      <c r="CN43" s="56"/>
+      <c r="CO43" s="56"/>
+      <c r="CP43" s="56"/>
+      <c r="CQ43" s="56"/>
+      <c r="CR43" s="56"/>
+      <c r="CS43" s="56"/>
+      <c r="CT43" s="56"/>
+      <c r="CU43" s="56"/>
+      <c r="CV43" s="56"/>
+      <c r="CW43" s="56"/>
+      <c r="CX43" s="56"/>
+      <c r="CY43" s="56"/>
+      <c r="CZ43" s="56"/>
+      <c r="DA43" s="56"/>
+      <c r="DB43" s="56"/>
+      <c r="DC43" s="56"/>
+      <c r="DD43" s="56"/>
+      <c r="DE43" s="56"/>
+      <c r="DF43" s="56"/>
+      <c r="DG43" s="56"/>
+      <c r="DH43" s="56"/>
+      <c r="DI43" s="56"/>
+      <c r="DJ43" s="56"/>
+      <c r="DK43" s="56"/>
+      <c r="DL43" s="56"/>
+      <c r="DM43" s="56"/>
+      <c r="DN43" s="56"/>
+      <c r="DO43" s="56"/>
+      <c r="DP43" s="56"/>
+      <c r="DQ43" s="56"/>
+      <c r="DR43" s="56"/>
+      <c r="DS43" s="56"/>
+      <c r="DT43" s="56"/>
+      <c r="DU43" s="56"/>
+      <c r="DV43" s="56"/>
+      <c r="DW43" s="56"/>
+      <c r="DX43" s="56"/>
+      <c r="DY43" s="56"/>
+      <c r="DZ43" s="56"/>
+      <c r="EA43" s="56"/>
+      <c r="EB43" s="56"/>
+      <c r="EC43" s="56"/>
+      <c r="ED43" s="56"/>
+      <c r="EE43" s="56"/>
+      <c r="EF43" s="56"/>
+      <c r="EG43" s="56"/>
+      <c r="EH43" s="56"/>
+      <c r="EI43" s="56"/>
+      <c r="EJ43" s="56"/>
+      <c r="EK43" s="56"/>
+      <c r="EL43" s="56"/>
+      <c r="EM43" s="56"/>
+      <c r="EN43" s="56"/>
+      <c r="EO43" s="56"/>
+      <c r="EP43" s="56"/>
+      <c r="EQ43" s="56"/>
+      <c r="ER43" s="56"/>
+      <c r="ES43" s="56"/>
+      <c r="ET43" s="56"/>
+      <c r="EU43" s="56"/>
+      <c r="EV43" s="56"/>
+      <c r="EW43" s="56"/>
+      <c r="EX43" s="56"/>
+      <c r="EY43" s="56"/>
+      <c r="EZ43" s="56"/>
+      <c r="FA43" s="56"/>
+      <c r="FB43" s="56"/>
+      <c r="FC43" s="56"/>
+      <c r="FD43" s="56"/>
+      <c r="FE43" s="56"/>
+      <c r="FF43" s="56"/>
+      <c r="FG43" s="56"/>
+      <c r="FH43" s="56"/>
+      <c r="FI43" s="56"/>
+      <c r="FJ43" s="56"/>
+      <c r="FK43" s="56"/>
+      <c r="FL43" s="56"/>
+      <c r="FM43" s="56"/>
+      <c r="FN43" s="56"/>
+      <c r="FO43" s="56"/>
+      <c r="FP43" s="56"/>
+      <c r="FQ43" s="56"/>
+      <c r="FR43" s="56"/>
+      <c r="FS43" s="56"/>
+      <c r="FT43" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:Q10"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="H17:Y19"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="J27:AB27"/>
   </mergeCells>
   <pageMargins left="0.393701" right="0.393701" top="0.590551" bottom="0.393701" header="0.511811" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="95" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -11132,782 +11166,782 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="56" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="56" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="56" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="56" customWidth="1"/>
-    <col min="7" max="8" width="4" style="56" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="56" customWidth="1"/>
-    <col min="10" max="10" width="4" style="56" customWidth="1"/>
-    <col min="11" max="11" width="9" style="56" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="56" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="56" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="56" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="56" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="56" customWidth="1"/>
-    <col min="17" max="17" width="9" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="56" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="58" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="58" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="58" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="58" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="58" customWidth="1"/>
+    <col min="7" max="8" width="4" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="4" style="58" customWidth="1"/>
+    <col min="11" max="11" width="9" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="58" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="58" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="58" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="58" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="58" customWidth="1"/>
+    <col min="17" max="17" width="9" style="58" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="68">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="70">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s" s="71">
+        <v>29</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="71">
+        <v>30</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
+        <v>45143</v>
+      </c>
+      <c r="N2" t="s" s="66">
         <v>27</v>
       </c>
-      <c r="D2" t="s" s="69">
-        <v>28</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="69">
-        <v>29</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="M2" s="72">
-        <v>45143</v>
-      </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
+      <c r="A3" t="s" s="77">
         <v>32</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>33</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
+      <c r="A6" t="s" s="94">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="93">
+      <c r="B6" t="s" s="95">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="93">
+      <c r="C6" t="s" s="95">
         <v>36</v>
       </c>
-      <c r="E6" t="s" s="94">
+      <c r="D6" t="s" s="95">
         <v>37</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
+      <c r="E6" t="s" s="96">
         <v>38</v>
       </c>
-      <c r="H6" t="s" s="97">
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
         <v>39</v>
       </c>
-      <c r="I6" t="s" s="98">
+      <c r="H6" t="s" s="99">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="97">
+      <c r="I6" t="s" s="100">
         <v>41</v>
       </c>
-      <c r="K6" t="s" s="99">
+      <c r="J6" t="s" s="99">
         <v>42</v>
       </c>
-      <c r="L6" t="s" s="100">
+      <c r="K6" t="s" s="101">
         <v>43</v>
       </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
+      <c r="L6" t="s" s="102">
         <v>44</v>
       </c>
-      <c r="O6" t="s" s="93">
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
         <v>45</v>
       </c>
-      <c r="P6" t="s" s="102">
+      <c r="O6" t="s" s="95">
         <v>46</v>
       </c>
-      <c r="Q6" s="74"/>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
+      <c r="A7" t="s" s="105">
         <v>48</v>
       </c>
-      <c r="C7" t="s" s="104">
+      <c r="B7" t="s" s="106">
         <v>49</v>
       </c>
-      <c r="D7" t="s" s="105">
+      <c r="C7" t="s" s="106">
         <v>50</v>
       </c>
-      <c r="E7" s="106">
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
         <v>8</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="108">
         <v>0</v>
       </c>
-      <c r="G7" t="s" s="105">
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="H7" t="s" s="105">
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="114">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s" s="123">
+        <v>61</v>
+      </c>
+      <c r="M9" s="124"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>100</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s" s="123">
+        <v>61</v>
+      </c>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E11" s="116">
+        <v>100</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s" s="123">
+        <v>66</v>
+      </c>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="121">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="114">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E12" s="116">
+        <v>100</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="117"/>
+      <c r="K12" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s" s="123">
+        <v>66</v>
+      </c>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="76"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s" s="114">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E13" s="116">
+        <v>255</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s" s="123">
+        <v>71</v>
+      </c>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="A14" s="121">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="114">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s" s="114">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E14" s="116">
+        <v>255</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="117"/>
+      <c r="K14" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s" s="123">
+        <v>74</v>
+      </c>
+      <c r="M14" s="124"/>
+      <c r="N14" t="s" s="114">
+        <v>75</v>
+      </c>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="76"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" s="121">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="114">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s" s="114">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="105">
+      <c r="E15" s="116">
+        <v>1</v>
+      </c>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="117"/>
+      <c r="K15" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s" s="123">
+        <v>78</v>
+      </c>
+      <c r="M15" s="124"/>
+      <c r="N15" t="s" s="114">
+        <v>79</v>
+      </c>
+      <c r="O15" s="117"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" ht="31.5" customHeight="1">
+      <c r="A16" s="121">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s" s="114">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s" s="114">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
+      <c r="E16" s="116">
+        <v>7</v>
+      </c>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="117"/>
+      <c r="K16" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s" s="123">
+        <v>82</v>
+      </c>
+      <c r="M16" s="124"/>
+      <c r="N16" t="s" s="114">
+        <v>83</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" t="s" s="125">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" ht="31.5" customHeight="1">
+      <c r="A17" s="121">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="114">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="114">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E17" s="116">
+        <v>100</v>
+      </c>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="117"/>
+      <c r="K17" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s" s="123">
+        <v>87</v>
+      </c>
+      <c r="M17" s="124"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" ht="31.5" customHeight="1">
+      <c r="A18" s="121">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s" s="114">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s" s="114">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E18" s="116">
+        <v>100</v>
+      </c>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="117"/>
+      <c r="K18" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s" s="123">
+        <v>90</v>
+      </c>
+      <c r="M18" s="124"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" ht="31.5" customHeight="1">
+      <c r="A19" s="121">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="114">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s" s="114">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E19" s="116">
+        <v>255</v>
+      </c>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="117"/>
+      <c r="K19" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s" s="123">
+        <v>90</v>
+      </c>
+      <c r="M19" s="124"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" ht="31.5" customHeight="1">
+      <c r="A20" s="121">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s" s="114">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s" s="114">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E20" s="116">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="112">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="126">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s" s="123">
+        <v>95</v>
+      </c>
+      <c r="M20" s="124"/>
+      <c r="N20" t="s" s="114">
+        <v>79</v>
+      </c>
+      <c r="O20" s="117"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" ht="31.5" customHeight="1">
+      <c r="A21" s="121">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="114">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s" s="114">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E21" s="116">
+        <v>1</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="126">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s" s="123">
+        <v>98</v>
+      </c>
+      <c r="M21" s="124"/>
+      <c r="N21" t="s" s="114">
+        <v>79</v>
+      </c>
+      <c r="O21" s="117"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="76"/>
+    </row>
+    <row r="22" ht="31.5" customHeight="1">
+      <c r="A22" s="121">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s" s="114">
         <v>100</v>
       </c>
-      <c r="F8" s="114">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="112">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s" s="121">
-        <v>60</v>
-      </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>100</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s" s="121">
-        <v>60</v>
-      </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E11" s="114">
-        <v>100</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s" s="121">
-        <v>65</v>
-      </c>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="119">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="112">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="112">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E12" s="114">
-        <v>100</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="115"/>
-      <c r="K12" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s" s="121">
-        <v>65</v>
-      </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E13" s="114">
-        <v>255</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s" s="121">
-        <v>70</v>
-      </c>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="119">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="112">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s" s="112">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E14" s="114">
-        <v>255</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="115"/>
-      <c r="K14" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L14" t="s" s="121">
-        <v>73</v>
-      </c>
-      <c r="M14" s="122"/>
-      <c r="N14" t="s" s="112">
-        <v>74</v>
-      </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="74"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="119">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="112">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s" s="112">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E15" s="114">
-        <v>1</v>
-      </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="115"/>
-      <c r="K15" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L15" t="s" s="121">
-        <v>77</v>
-      </c>
-      <c r="M15" s="122"/>
-      <c r="N15" t="s" s="112">
-        <v>78</v>
-      </c>
-      <c r="O15" s="115"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="119">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s" s="112">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s" s="112">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E16" s="114">
-        <v>7</v>
-      </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="115"/>
-      <c r="K16" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L16" t="s" s="121">
-        <v>81</v>
-      </c>
-      <c r="M16" s="122"/>
-      <c r="N16" t="s" s="112">
-        <v>82</v>
-      </c>
-      <c r="O16" s="115"/>
-      <c r="P16" t="s" s="123">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="119">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s" s="112">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s" s="112">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E17" s="114">
-        <v>100</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="115"/>
-      <c r="K17" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L17" t="s" s="121">
-        <v>86</v>
-      </c>
-      <c r="M17" s="122"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" ht="31.5" customHeight="1">
-      <c r="A18" s="119">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s" s="112">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s" s="112">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E18" s="114">
-        <v>100</v>
-      </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="115"/>
-      <c r="K18" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L18" t="s" s="121">
-        <v>89</v>
-      </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" ht="31.5" customHeight="1">
-      <c r="A19" s="119">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s" s="112">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s" s="112">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E19" s="114">
-        <v>255</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="115"/>
-      <c r="K19" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L19" t="s" s="121">
-        <v>89</v>
-      </c>
-      <c r="M19" s="122"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" ht="31.5" customHeight="1">
-      <c r="A20" s="119">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s" s="112">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s" s="112">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E20" s="114">
-        <v>1</v>
-      </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="124">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s" s="121">
-        <v>94</v>
-      </c>
-      <c r="M20" s="122"/>
-      <c r="N20" t="s" s="112">
-        <v>78</v>
-      </c>
-      <c r="O20" s="115"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" s="119">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s" s="112">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s" s="112">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E21" s="114">
-        <v>1</v>
-      </c>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="124">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s" s="121">
-        <v>97</v>
-      </c>
-      <c r="M21" s="122"/>
-      <c r="N21" t="s" s="112">
-        <v>78</v>
-      </c>
-      <c r="O21" s="115"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" s="119">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s" s="112">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s" s="113">
+      <c r="D22" t="s" s="115">
         <v>101</v>
       </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="115"/>
-      <c r="K22" t="s" s="125">
+      <c r="E22" t="s" s="115">
         <v>102</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="127"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="117"/>
+      <c r="K22" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L22" s="128"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="129"/>
     </row>
     <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" s="119">
+      <c r="A23" s="121">
         <v>16</v>
       </c>
-      <c r="B23" t="s" s="112">
+      <c r="B23" t="s" s="114">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s" s="114">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="117"/>
+      <c r="K23" t="s" s="127">
         <v>103</v>
       </c>
-      <c r="C23" t="s" s="112">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="115"/>
-      <c r="K23" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L23" s="126"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" t="s" s="121">
-        <v>105</v>
-      </c>
-      <c r="Q23" s="122"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" t="s" s="123">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11950,606 +11984,641 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="128" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="128" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="128" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="128" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="128" customWidth="1"/>
-    <col min="7" max="8" width="4" style="128" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="128" customWidth="1"/>
-    <col min="10" max="10" width="4" style="128" customWidth="1"/>
-    <col min="11" max="11" width="9" style="128" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="128" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="128" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="128" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="128" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="128" customWidth="1"/>
-    <col min="17" max="17" width="9" style="128" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="128" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="130" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="130" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="130" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="130" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="130" customWidth="1"/>
+    <col min="7" max="8" width="4" style="130" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="130" customWidth="1"/>
+    <col min="10" max="10" width="4" style="130" customWidth="1"/>
+    <col min="11" max="11" width="9" style="130" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="130" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="130" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="130" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="130" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="130" customWidth="1"/>
+    <col min="17" max="17" width="9" style="130" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="68">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s" s="69">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="70">
         <v>108</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="69">
+      <c r="D2" t="s" s="71">
         <v>109</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="M2" s="72">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="71">
+        <v>110</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
         <v>45143</v>
       </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
+      <c r="N2" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
-        <v>110</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
+      <c r="A3" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>111</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
+      <c r="A6" t="s" s="94">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="93">
+      <c r="B6" t="s" s="95">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="93">
+      <c r="C6" t="s" s="95">
         <v>36</v>
       </c>
-      <c r="E6" t="s" s="94">
+      <c r="D6" t="s" s="95">
         <v>37</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
+      <c r="E6" t="s" s="96">
         <v>38</v>
       </c>
-      <c r="H6" t="s" s="97">
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
         <v>39</v>
       </c>
-      <c r="I6" t="s" s="98">
+      <c r="H6" t="s" s="99">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="97">
+      <c r="I6" t="s" s="100">
         <v>41</v>
       </c>
-      <c r="K6" t="s" s="99">
+      <c r="J6" t="s" s="99">
         <v>42</v>
       </c>
-      <c r="L6" t="s" s="100">
+      <c r="K6" t="s" s="101">
         <v>43</v>
       </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
+      <c r="L6" t="s" s="102">
         <v>44</v>
       </c>
-      <c r="O6" t="s" s="93">
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
         <v>45</v>
       </c>
-      <c r="P6" t="s" s="102">
+      <c r="O6" t="s" s="95">
         <v>46</v>
       </c>
-      <c r="Q6" s="74"/>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
+      <c r="A7" t="s" s="105">
         <v>48</v>
       </c>
-      <c r="C7" t="s" s="104">
+      <c r="B7" t="s" s="106">
         <v>49</v>
       </c>
-      <c r="D7" t="s" s="105">
+      <c r="C7" t="s" s="106">
         <v>50</v>
       </c>
-      <c r="E7" s="106">
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
         <v>8</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="108">
         <v>0</v>
       </c>
-      <c r="G7" t="s" s="105">
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="H7" t="s" s="105">
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s" s="114">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" s="128"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>100</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E11" s="116">
+        <v>100</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" s="128"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="121">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="114">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E12" s="116">
+        <v>100</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="117"/>
+      <c r="K12" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L12" s="128"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="76"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s" s="114">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E13" s="116">
+        <v>255</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s" s="131">
+        <v>123</v>
+      </c>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="A14" s="132">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="133">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s" s="133">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E14" s="116">
+        <v>255</v>
+      </c>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
+      <c r="K14" t="s" s="133">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s" s="136">
+        <v>126</v>
+      </c>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="76"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" s="138">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="139">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s" s="139">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s" s="140">
+        <v>60</v>
+      </c>
+      <c r="E15" s="141">
+        <v>100</v>
+      </c>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
+      <c r="K15" t="s" s="139">
+        <v>56</v>
+      </c>
+      <c r="L15" s="144"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" ht="31.5" customHeight="1">
+      <c r="A16" s="149">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s" s="150">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="151">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="105">
+      <c r="E16" s="116">
+        <v>1</v>
+      </c>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" t="s" s="150">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s" s="154">
+        <v>131</v>
+      </c>
+      <c r="M16" s="155"/>
+      <c r="N16" t="s" s="150">
+        <v>79</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" ht="31.5" customHeight="1">
+      <c r="A17" s="121">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s" s="114">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="117"/>
+      <c r="K17" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L17" s="128"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="129"/>
+    </row>
+    <row r="18" ht="31.5" customHeight="1">
+      <c r="A18" s="121">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s" s="114">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s" s="114">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="117"/>
+      <c r="K18" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L18" s="128"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" t="s" s="123">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="124"/>
+    </row>
+    <row r="19" ht="31.5" customHeight="1">
+      <c r="A19" s="121">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="114">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s" s="114">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
+      <c r="E19" s="116">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="112">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
-        <v>100</v>
-      </c>
-      <c r="F8" s="114">
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="126">
         <v>0</v>
       </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s" s="112">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>100</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E11" s="114">
-        <v>100</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" s="126"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="119">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="112">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s" s="112">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E12" s="114">
-        <v>100</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="115"/>
-      <c r="K12" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L12" s="126"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E13" s="114">
-        <v>255</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s" s="129">
-        <v>122</v>
-      </c>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="130">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="131">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s" s="131">
-        <v>124</v>
-      </c>
-      <c r="D14" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E14" s="114">
-        <v>255</v>
-      </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" t="s" s="131">
-        <v>55</v>
-      </c>
-      <c r="L14" t="s" s="134">
-        <v>125</v>
-      </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="74"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="136">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="137">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s" s="137">
-        <v>127</v>
-      </c>
-      <c r="D15" t="s" s="138">
-        <v>59</v>
-      </c>
-      <c r="E15" s="139">
-        <v>100</v>
-      </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" t="s" s="137">
-        <v>55</v>
-      </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="147">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s" s="148">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s" s="149">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E16" s="114">
-        <v>1</v>
-      </c>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
-      <c r="K16" t="s" s="148">
-        <v>55</v>
-      </c>
-      <c r="L16" t="s" s="152">
-        <v>130</v>
-      </c>
-      <c r="M16" s="153"/>
-      <c r="N16" t="s" s="148">
-        <v>78</v>
-      </c>
-      <c r="O16" s="115"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="119">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s" s="112">
+      <c r="L19" t="s" s="123">
         <v>98</v>
       </c>
-      <c r="C17" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="115"/>
-      <c r="K17" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="127"/>
-    </row>
-    <row r="18" ht="31.5" customHeight="1">
-      <c r="A18" s="119">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s" s="112">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s" s="112">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="115"/>
-      <c r="K18" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L18" s="126"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" t="s" s="121">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="122"/>
+      <c r="M19" s="124"/>
+      <c r="N19" t="s" s="114">
+        <v>79</v>
+      </c>
+      <c r="O19" s="117"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L17:M17"/>
@@ -12573,6 +12642,7 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <pageMargins left="0.354331" right="0.354331" top="0.19685" bottom="0.19685" header="0.23622" footer="0.23622"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -12590,564 +12660,564 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="154" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="154" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="154" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="154" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="154" customWidth="1"/>
-    <col min="7" max="8" width="4" style="154" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="154" customWidth="1"/>
-    <col min="10" max="10" width="4" style="154" customWidth="1"/>
-    <col min="11" max="11" width="9" style="154" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="154" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="154" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="154" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="154" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="154" customWidth="1"/>
-    <col min="17" max="17" width="9" style="154" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="154" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="157" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="157" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="157" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="157" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="157" customWidth="1"/>
+    <col min="7" max="8" width="4" style="157" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="157" customWidth="1"/>
+    <col min="10" max="10" width="4" style="157" customWidth="1"/>
+    <col min="11" max="11" width="9" style="157" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="157" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="157" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="157" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="157" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="157" customWidth="1"/>
+    <col min="17" max="17" width="9" style="157" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="157" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="68">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s" s="69">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="70">
         <v>133</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="155">
+      <c r="D2" t="s" s="71">
         <v>134</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="158">
+        <v>135</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
+        <v>45143</v>
+      </c>
+      <c r="N2" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>136</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" t="s" s="94">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="95">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="95">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="95">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="96">
+        <v>38</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s" s="99">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="100">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="99">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s" s="101">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s" s="102">
+        <v>44</v>
+      </c>
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s" s="95">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
+      <c r="A7" t="s" s="105">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="106">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="106">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
+        <v>8</v>
+      </c>
+      <c r="F7" s="108">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s" s="159">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s" s="114">
+        <v>139</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>100</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E11" s="116">
+        <v>11</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" s="128"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="121">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="114">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E12" s="116">
+        <v>11</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="117"/>
+      <c r="K12" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L12" s="128"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="76"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s" s="114">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E13" s="116">
+        <v>100</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="A14" s="121">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="114">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s" s="114">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E14" s="116">
+        <v>16</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="117"/>
+      <c r="K14" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s" s="131">
+        <v>123</v>
+      </c>
+      <c r="M14" s="124"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="76"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" s="121">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="114">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s" s="114">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E15" s="116">
         <v>30</v>
       </c>
-      <c r="M2" s="72">
-        <v>45143</v>
-      </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
-        <v>135</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
-    </row>
-    <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="93">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="93">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s" s="94">
-        <v>37</v>
-      </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s" s="97">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s" s="98">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="97">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s" s="99">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s" s="100">
-        <v>43</v>
-      </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s" s="93">
-        <v>45</v>
-      </c>
-      <c r="P6" t="s" s="102">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s" s="104">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s" s="105">
-        <v>50</v>
-      </c>
-      <c r="E7" s="106">
-        <v>8</v>
-      </c>
-      <c r="F7" s="106">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="112">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="117"/>
+      <c r="K15" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s" s="127">
+        <v>145</v>
+      </c>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" ht="31.5" customHeight="1">
+      <c r="A16" s="121">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s" s="114">
         <v>100</v>
       </c>
-      <c r="F8" s="114">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s" s="156">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s" s="112">
-        <v>138</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>100</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E11" s="114">
-        <v>11</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" s="126"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="119">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="112">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s" s="112">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E12" s="114">
-        <v>11</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="115"/>
-      <c r="K12" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L12" s="126"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E13" s="114">
-        <v>100</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="119">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="112">
-        <v>140</v>
-      </c>
-      <c r="C14" t="s" s="112">
-        <v>141</v>
-      </c>
-      <c r="D14" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E14" s="114">
-        <v>16</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="115"/>
-      <c r="K14" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L14" t="s" s="129">
-        <v>122</v>
-      </c>
-      <c r="M14" s="122"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="74"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="119">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="112">
-        <v>142</v>
-      </c>
-      <c r="C15" t="s" s="112">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E15" s="114">
-        <v>30</v>
-      </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="115"/>
-      <c r="K15" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L15" t="s" s="125">
-        <v>144</v>
-      </c>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="119">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s" s="112">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s" s="113">
+      <c r="D16" t="s" s="115">
         <v>101</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="115"/>
-      <c r="K16" t="s" s="125">
+      <c r="E16" t="s" s="115">
         <v>102</v>
       </c>
-      <c r="L16" s="126"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="127"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="117"/>
+      <c r="K16" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L16" s="128"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="129"/>
     </row>
     <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="119">
+      <c r="A17" s="121">
         <v>12</v>
       </c>
-      <c r="B17" t="s" s="112">
+      <c r="B17" t="s" s="114">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s" s="114">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="117"/>
+      <c r="K17" t="s" s="127">
         <v>103</v>
       </c>
-      <c r="C17" t="s" s="112">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="115"/>
-      <c r="K17" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" t="s" s="121">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="122"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" t="s" s="123">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -13184,509 +13254,544 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="158" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="158" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="158" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="158" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="158" customWidth="1"/>
-    <col min="7" max="8" width="4" style="158" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="158" customWidth="1"/>
-    <col min="10" max="10" width="4" style="158" customWidth="1"/>
-    <col min="11" max="11" width="9" style="158" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="158" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="158" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="158" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="158" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="158" customWidth="1"/>
-    <col min="17" max="17" width="9" style="158" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="158" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="161" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="161" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="161" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="161" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="161" customWidth="1"/>
+    <col min="7" max="8" width="4" style="161" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="161" customWidth="1"/>
+    <col min="10" max="10" width="4" style="161" customWidth="1"/>
+    <col min="11" max="11" width="9" style="161" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="161" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="161" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="161" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="161" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="161" customWidth="1"/>
+    <col min="17" max="17" width="9" style="161" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="161" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="68">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="70">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s" s="71">
         <v>146</v>
       </c>
-      <c r="D2" t="s" s="69">
-        <v>145</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="155">
-        <v>147</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="M2" s="72">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="158">
+        <v>148</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
         <v>45143</v>
       </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
+      <c r="N2" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
-        <v>148</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
+      <c r="A3" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>149</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
+      <c r="A6" t="s" s="94">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="93">
+      <c r="B6" t="s" s="95">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="93">
+      <c r="C6" t="s" s="95">
         <v>36</v>
       </c>
-      <c r="E6" t="s" s="94">
+      <c r="D6" t="s" s="95">
         <v>37</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
+      <c r="E6" t="s" s="96">
         <v>38</v>
       </c>
-      <c r="H6" t="s" s="97">
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
         <v>39</v>
       </c>
-      <c r="I6" t="s" s="98">
+      <c r="H6" t="s" s="99">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="97">
+      <c r="I6" t="s" s="100">
         <v>41</v>
       </c>
-      <c r="K6" t="s" s="99">
+      <c r="J6" t="s" s="99">
         <v>42</v>
       </c>
-      <c r="L6" t="s" s="100">
+      <c r="K6" t="s" s="101">
         <v>43</v>
       </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
+      <c r="L6" t="s" s="102">
         <v>44</v>
       </c>
-      <c r="O6" t="s" s="93">
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
         <v>45</v>
       </c>
-      <c r="P6" t="s" s="102">
+      <c r="O6" t="s" s="95">
         <v>46</v>
       </c>
-      <c r="Q6" s="74"/>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
+      <c r="A7" t="s" s="105">
         <v>48</v>
       </c>
-      <c r="C7" t="s" s="104">
+      <c r="B7" t="s" s="106">
         <v>49</v>
       </c>
-      <c r="D7" t="s" s="105">
+      <c r="C7" t="s" s="106">
         <v>50</v>
       </c>
-      <c r="E7" s="106">
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
         <v>8</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="108">
         <v>0</v>
       </c>
-      <c r="G7" t="s" s="105">
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="H7" t="s" s="105">
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s" s="159">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="105">
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>255</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
+      <c r="E11" s="116">
+        <v>11</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s" s="127">
+        <v>126</v>
+      </c>
+      <c r="M11" s="160"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="162">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="163">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s" s="163">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s" s="140">
+        <v>60</v>
+      </c>
+      <c r="E12" s="141">
+        <v>100</v>
+      </c>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
+      <c r="K12" t="s" s="163">
+        <v>56</v>
+      </c>
+      <c r="L12" s="166"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="167"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="114">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E13" s="116">
+        <v>100</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s" s="123">
+        <v>131</v>
+      </c>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="A14" s="121">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s" s="114">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="117"/>
+      <c r="K14" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L14" s="128"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="129"/>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
+      <c r="A15" s="121">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="114">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s" s="114">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="117"/>
+      <c r="K15" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L15" s="128"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" t="s" s="123">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="124"/>
+    </row>
+    <row r="16" ht="31.5" customHeight="1">
+      <c r="A16" s="121">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s" s="114">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s" s="114">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E16" s="116">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="112">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
-        <v>100</v>
-      </c>
-      <c r="F8" s="114">
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="126">
         <v>0</v>
       </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="156">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>151</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>255</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E11" s="114">
-        <v>11</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s" s="125">
-        <v>125</v>
-      </c>
-      <c r="M11" s="157"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="159">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="160">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s" s="160">
-        <v>153</v>
-      </c>
-      <c r="D12" t="s" s="138">
-        <v>59</v>
-      </c>
-      <c r="E12" s="139">
-        <v>100</v>
-      </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" t="s" s="160">
-        <v>55</v>
-      </c>
-      <c r="L12" s="163"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="164"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E13" s="114">
-        <v>100</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s" s="121">
-        <v>130</v>
-      </c>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="119">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s" s="112">
+      <c r="L16" t="s" s="123">
         <v>98</v>
       </c>
-      <c r="C14" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="115"/>
-      <c r="K14" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L14" s="126"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="127"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="119">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="112">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s" s="112">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="115"/>
-      <c r="K15" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" t="s" s="121">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="122"/>
+      <c r="M16" s="124"/>
+      <c r="N16" t="s" s="114">
+        <v>79</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L14:M14"/>
@@ -13707,6 +13812,7 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.354331" right="0.354331" top="0.19685" bottom="0.19685" header="0.23622" footer="0.23622"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -13724,500 +13830,500 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="165" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="165" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="165" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="165" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="165" customWidth="1"/>
-    <col min="7" max="8" width="4" style="165" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="165" customWidth="1"/>
-    <col min="10" max="10" width="4" style="165" customWidth="1"/>
-    <col min="11" max="11" width="9" style="165" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="165" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="165" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="165" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="165" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="165" customWidth="1"/>
-    <col min="17" max="17" width="9" style="165" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="165" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="168" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="168" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="168" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="168" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="168" customWidth="1"/>
+    <col min="7" max="8" width="4" style="168" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="168" customWidth="1"/>
+    <col min="10" max="10" width="4" style="168" customWidth="1"/>
+    <col min="11" max="11" width="9" style="168" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="168" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="168" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="168" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="168" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="168" customWidth="1"/>
+    <col min="17" max="17" width="9" style="168" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="168" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="68">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="70">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s" s="71">
         <v>156</v>
       </c>
-      <c r="D2" t="s" s="69">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="158">
+        <v>158</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
+        <v>45143</v>
+      </c>
+      <c r="N2" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>159</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" t="s" s="94">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="95">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="95">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="95">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="96">
+        <v>38</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s" s="99">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="100">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="99">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s" s="101">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s" s="102">
+        <v>44</v>
+      </c>
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s" s="95">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
+      <c r="A7" t="s" s="105">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="106">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="106">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
+        <v>8</v>
+      </c>
+      <c r="F7" s="108">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s" s="159">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>255</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s" s="115">
+        <v>51</v>
+      </c>
+      <c r="E11" s="116">
+        <v>1</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s" s="127">
+        <v>126</v>
+      </c>
+      <c r="M11" s="160"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="162">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="163">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s" s="163">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s" s="140">
+        <v>60</v>
+      </c>
+      <c r="E12" s="141">
+        <v>100</v>
+      </c>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
+      <c r="K12" t="s" s="163">
+        <v>56</v>
+      </c>
+      <c r="L12" s="166"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="167"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="114">
         <v>155</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="155">
-        <v>157</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="M2" s="72">
-        <v>45143</v>
-      </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
-        <v>158</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
-    </row>
-    <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="93">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="93">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s" s="94">
-        <v>37</v>
-      </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s" s="97">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s" s="98">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="97">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s" s="99">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s" s="100">
-        <v>43</v>
-      </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s" s="93">
-        <v>45</v>
-      </c>
-      <c r="P6" t="s" s="102">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s" s="104">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s" s="105">
-        <v>50</v>
-      </c>
-      <c r="E7" s="106">
-        <v>8</v>
-      </c>
-      <c r="F7" s="106">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s" s="105">
+      <c r="D13" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="H7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
+      <c r="E13" s="116">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="112">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s" s="123">
+        <v>131</v>
+      </c>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
+      <c r="A14" s="121">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s" s="114">
         <v>100</v>
       </c>
-      <c r="F8" s="114">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="156">
-        <v>159</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>255</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>161</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E11" s="114">
-        <v>1</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s" s="125">
-        <v>125</v>
-      </c>
-      <c r="M11" s="157"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="159">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="160">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s" s="160">
-        <v>162</v>
-      </c>
-      <c r="D12" t="s" s="138">
-        <v>59</v>
-      </c>
-      <c r="E12" s="139">
-        <v>100</v>
-      </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" t="s" s="160">
-        <v>55</v>
-      </c>
-      <c r="L12" s="163"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="164"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E13" s="114">
-        <v>1</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s" s="121">
-        <v>130</v>
-      </c>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="119">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s" s="112">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s" s="113">
+      <c r="D14" t="s" s="115">
         <v>101</v>
       </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="115"/>
-      <c r="K14" t="s" s="125">
+      <c r="E14" t="s" s="115">
         <v>102</v>
       </c>
-      <c r="L14" s="126"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="127"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="117"/>
+      <c r="K14" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L14" s="128"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="129"/>
     </row>
     <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="119">
+      <c r="A15" s="121">
         <v>12</v>
       </c>
-      <c r="B15" t="s" s="112">
+      <c r="B15" t="s" s="114">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s" s="114">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s" s="115">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s" s="115">
+        <v>102</v>
+      </c>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="117"/>
+      <c r="K15" t="s" s="127">
         <v>103</v>
       </c>
-      <c r="C15" t="s" s="112">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s" s="113">
-        <v>101</v>
-      </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="115"/>
-      <c r="K15" t="s" s="125">
-        <v>102</v>
-      </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" t="s" s="121">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="122"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" t="s" s="123">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -14258,440 +14364,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="166" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="166" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="166" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="166" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="166" customWidth="1"/>
-    <col min="7" max="8" width="4" style="166" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="166" customWidth="1"/>
-    <col min="10" max="10" width="4" style="166" customWidth="1"/>
-    <col min="11" max="11" width="9" style="166" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="166" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="166" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="166" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="166" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="166" customWidth="1"/>
-    <col min="17" max="17" width="9" style="166" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="166" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="169" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="169" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="169" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="169" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="169" customWidth="1"/>
+    <col min="7" max="8" width="4" style="169" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="169" customWidth="1"/>
+    <col min="10" max="10" width="4" style="169" customWidth="1"/>
+    <col min="11" max="11" width="9" style="169" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="169" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="169" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="169" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="169" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="169" customWidth="1"/>
+    <col min="17" max="17" width="9" style="169" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="169" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" t="s" s="59">
+      <c r="A1" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="60">
+      <c r="B1" s="60"/>
+      <c r="C1" t="s" s="61">
         <v>23</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" t="s" s="60">
+      <c r="D1" t="s" s="62">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-      <c r="L1" t="s" s="59">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" t="s" s="62">
         <v>25</v>
       </c>
-      <c r="M1" t="s" s="63">
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="66"/>
+      <c r="N1" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" t="s" s="167">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" t="s" s="170">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s" s="71">
         <v>164</v>
       </c>
-      <c r="D2" t="s" s="69">
-        <v>163</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" t="s" s="155">
-        <v>165</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-      <c r="L2" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="M2" s="72">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" t="s" s="158">
+        <v>166</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="M2" s="74">
         <v>45143</v>
       </c>
-      <c r="N2" t="s" s="64">
-        <v>26</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="74"/>
+      <c r="N2" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" t="s" s="77">
-        <v>166</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="74"/>
+      <c r="A3" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" t="s" s="79">
+        <v>167</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="74"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="91"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="93"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="92">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="93">
+      <c r="A6" t="s" s="94">
         <v>34</v>
       </c>
-      <c r="C6" t="s" s="93">
+      <c r="B6" t="s" s="95">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="93">
+      <c r="C6" t="s" s="95">
         <v>36</v>
       </c>
-      <c r="E6" t="s" s="94">
+      <c r="D6" t="s" s="95">
         <v>37</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" t="s" s="96">
+      <c r="E6" t="s" s="96">
         <v>38</v>
       </c>
-      <c r="H6" t="s" s="97">
+      <c r="F6" s="97"/>
+      <c r="G6" t="s" s="98">
         <v>39</v>
       </c>
-      <c r="I6" t="s" s="98">
+      <c r="H6" t="s" s="99">
         <v>40</v>
       </c>
-      <c r="J6" t="s" s="97">
+      <c r="I6" t="s" s="100">
         <v>41</v>
       </c>
-      <c r="K6" t="s" s="99">
+      <c r="J6" t="s" s="99">
         <v>42</v>
       </c>
-      <c r="L6" t="s" s="100">
+      <c r="K6" t="s" s="101">
         <v>43</v>
       </c>
-      <c r="M6" s="101"/>
-      <c r="N6" t="s" s="93">
+      <c r="L6" t="s" s="102">
         <v>44</v>
       </c>
-      <c r="O6" t="s" s="93">
+      <c r="M6" s="103"/>
+      <c r="N6" t="s" s="95">
         <v>45</v>
       </c>
-      <c r="P6" t="s" s="102">
+      <c r="O6" t="s" s="95">
         <v>46</v>
       </c>
-      <c r="Q6" s="74"/>
+      <c r="P6" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s" s="104">
+      <c r="A7" t="s" s="105">
         <v>48</v>
       </c>
-      <c r="C7" t="s" s="104">
+      <c r="B7" t="s" s="106">
         <v>49</v>
       </c>
-      <c r="D7" t="s" s="105">
+      <c r="C7" t="s" s="106">
         <v>50</v>
       </c>
-      <c r="E7" s="106">
+      <c r="D7" t="s" s="107">
+        <v>51</v>
+      </c>
+      <c r="E7" s="108">
         <v>8</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="108">
         <v>0</v>
       </c>
-      <c r="G7" t="s" s="105">
+      <c r="G7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="107">
+        <v>52</v>
+      </c>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" t="s" s="110">
+        <v>53</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="113">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="114">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="H7" t="s" s="105">
+      <c r="E8" s="116">
+        <v>100</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="115">
+        <v>52</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s" s="118">
+        <v>57</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" t="s" s="114">
+        <v>41</v>
+      </c>
+      <c r="O8" s="117"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
+      <c r="A9" s="121">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="114">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s" s="159">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E9" s="116">
+        <v>100</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="117"/>
+      <c r="K9" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s" s="123">
+        <v>61</v>
+      </c>
+      <c r="M9" s="124"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
+      <c r="A10" s="121">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="114">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s" s="114">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E10" s="116">
+        <v>255</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="117"/>
+      <c r="K10" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s" s="123">
+        <v>71</v>
+      </c>
+      <c r="M10" s="124"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="121">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="114">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s" s="114">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s" s="115">
         <v>51</v>
       </c>
-      <c r="I7" t="s" s="105">
-        <v>51</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" t="s" s="108">
-        <v>52</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="111">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="112">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E8" s="114">
+      <c r="E11" s="116">
+        <v>11</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="117"/>
+      <c r="K11" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s" s="123">
+        <v>82</v>
+      </c>
+      <c r="M11" s="124"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
+      <c r="A12" s="121">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="114">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>60</v>
+      </c>
+      <c r="E12" s="116">
+        <v>255</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="117"/>
+      <c r="K12" t="s" s="114">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s" s="123">
+        <v>90</v>
+      </c>
+      <c r="M12" s="124"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="76"/>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="121">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="114">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s" s="114">
         <v>100</v>
       </c>
-      <c r="F8" s="114">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s" s="113">
-        <v>51</v>
-      </c>
-      <c r="J8" s="115"/>
-      <c r="K8" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s" s="116">
-        <v>56</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" t="s" s="112">
-        <v>40</v>
-      </c>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="119">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="112">
-        <v>167</v>
-      </c>
-      <c r="C9" t="s" s="156">
-        <v>168</v>
-      </c>
-      <c r="D9" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E9" s="114">
-        <v>100</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="115"/>
-      <c r="K9" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s" s="121">
-        <v>60</v>
-      </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="119">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s" s="112">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E10" s="114">
-        <v>255</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="115"/>
-      <c r="K10" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s" s="121">
-        <v>70</v>
-      </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="119">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="112">
-        <v>169</v>
-      </c>
-      <c r="C11" t="s" s="112">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="E11" s="114">
-        <v>11</v>
-      </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="115"/>
-      <c r="K11" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s" s="121">
-        <v>81</v>
-      </c>
-      <c r="M11" s="122"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="119">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="112">
-        <v>171</v>
-      </c>
-      <c r="C12" t="s" s="112">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s" s="113">
-        <v>59</v>
-      </c>
-      <c r="E12" s="114">
-        <v>255</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="115"/>
-      <c r="K12" t="s" s="112">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s" s="121">
-        <v>89</v>
-      </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="119">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="112">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s" s="112">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s" s="113">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s" s="113">
+      <c r="D13" t="s" s="115">
         <v>101</v>
       </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="115"/>
-      <c r="K13" t="s" s="125">
+      <c r="E13" t="s" s="115">
         <v>102</v>
       </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="168"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="117"/>
+      <c r="K13" t="s" s="127">
+        <v>103</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/kihon_s/tableteigi_s.xlsx
+++ b/kihon_s/tableteigi_s.xlsx
@@ -7,7 +7,7 @@
   <sheets>
     <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
     <sheet name="表紙 " sheetId="2" r:id="rId5"/>
-    <sheet name="DIブログアカウント" sheetId="3" r:id="rId6"/>
+    <sheet name="会員リスト" sheetId="3" r:id="rId6"/>
     <sheet name="商品登録" sheetId="4" r:id="rId7"/>
     <sheet name="カート" sheetId="5" r:id="rId8"/>
     <sheet name="情報登録" sheetId="6" r:id="rId9"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -83,7 +83,7 @@
     <t>カラム追加</t>
   </si>
   <si>
-    <t>DIブログアカウント</t>
+    <t>会員リスト</t>
   </si>
   <si>
     <t>テーブル仕様書</t>
@@ -466,76 +466,19 @@
     <t>PKストアカートの中</t>
   </si>
   <si>
-    <t>user_buy_item_transaction</t>
+    <t>transaction</t>
   </si>
   <si>
     <t>PKストアのユーザーがカートに入れたものを管理するシステム</t>
   </si>
   <si>
-    <t>１会計の中でのid</t>
-  </si>
-  <si>
-    <t>Item_transaction_id</t>
-  </si>
-  <si>
-    <t>自動採番</t>
-  </si>
-  <si>
     <t>購入個数</t>
   </si>
   <si>
-    <t>購入者(姓＋名)</t>
-  </si>
-  <si>
-    <t>user_master_id</t>
-  </si>
-  <si>
-    <t>支払い方法</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴシック W3"/>
-      </rPr>
-      <t>パラメータが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴシック W3"/>
-      </rPr>
-      <t>は「現金」で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴシック W3"/>
-      </rPr>
-      <t>は「クレジット」</t>
-    </r>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t>情報登録</t>
@@ -1469,7 +1412,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1947,44 +1890,53 @@
     <xf numFmtId="49" fontId="17" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3374,7 +3326,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3385,12 +3337,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3401,12 +3353,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3417,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3378,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'表紙 '!R1C1" tooltip="" display="表紙 "/>
-    <hyperlink ref="D12" location="'DIブログアカウント'!R1C1" tooltip="" display="DIブログアカウント"/>
+    <hyperlink ref="D12" location="'会員リスト'!R1C1" tooltip="" display="会員リスト"/>
     <hyperlink ref="D14" location="'商品登録'!R1C1" tooltip="" display="商品登録"/>
     <hyperlink ref="D16" location="'カート'!R1C1" tooltip="" display="カート"/>
     <hyperlink ref="D18" location="'情報登録'!R1C1" tooltip="" display="情報登録"/>
@@ -12654,7 +12606,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -12934,16 +12886,16 @@
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s" s="114">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s" s="159">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="C9" t="s" s="114">
+        <v>114</v>
       </c>
       <c r="D9" t="s" s="115">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E9" s="116">
         <v>100</v>
@@ -12956,10 +12908,8 @@
       <c r="K9" t="s" s="114">
         <v>56</v>
       </c>
-      <c r="L9" t="s" s="114">
-        <v>139</v>
-      </c>
-      <c r="M9" s="117"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="117"/>
       <c r="O9" s="117"/>
       <c r="P9" s="120"/>
@@ -12967,19 +12917,19 @@
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="114">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="114">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s" s="115">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" s="116">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F10" s="122"/>
       <c r="G10" s="122"/>
@@ -12998,13 +12948,13 @@
     </row>
     <row r="11" ht="31.5" customHeight="1">
       <c r="A11" s="121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s" s="114">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="114">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s" s="115">
         <v>51</v>
@@ -13029,19 +12979,19 @@
     </row>
     <row r="12" ht="31.5" customHeight="1">
       <c r="A12" s="121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s" s="114">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s" s="114">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s" s="115">
         <v>51</v>
       </c>
       <c r="E12" s="116">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12" s="122"/>
       <c r="G12" s="122"/>
@@ -13051,7 +13001,9 @@
       <c r="K12" t="s" s="114">
         <v>56</v>
       </c>
-      <c r="L12" s="128"/>
+      <c r="L12" t="s" s="131">
+        <v>123</v>
+      </c>
       <c r="M12" s="124"/>
       <c r="N12" s="117"/>
       <c r="O12" s="117"/>
@@ -13060,180 +13012,46 @@
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="121">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s" s="114">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s" s="114">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s" s="115">
-        <v>60</v>
-      </c>
-      <c r="E13" s="116">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E13" t="s" s="115">
+        <v>102</v>
       </c>
       <c r="F13" s="122"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
       <c r="I13" s="122"/>
       <c r="J13" s="117"/>
-      <c r="K13" t="s" s="114">
-        <v>56</v>
+      <c r="K13" t="s" s="127">
+        <v>103</v>
       </c>
       <c r="L13" s="128"/>
       <c r="M13" s="124"/>
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
       <c r="P13" s="120"/>
-      <c r="Q13" s="76"/>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="121">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="114">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s" s="114">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s" s="115">
-        <v>51</v>
-      </c>
-      <c r="E14" s="116">
-        <v>16</v>
-      </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="117"/>
-      <c r="K14" t="s" s="114">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s" s="131">
-        <v>123</v>
-      </c>
-      <c r="M14" s="124"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="76"/>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="121">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="114">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s" s="114">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s" s="115">
-        <v>51</v>
-      </c>
-      <c r="E15" s="116">
-        <v>30</v>
-      </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="117"/>
-      <c r="K15" t="s" s="114">
-        <v>56</v>
-      </c>
-      <c r="L15" t="s" s="127">
-        <v>145</v>
-      </c>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="76"/>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="121">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s" s="114">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s" s="114">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s" s="115">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s" s="115">
-        <v>102</v>
-      </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="117"/>
-      <c r="K16" t="s" s="127">
-        <v>103</v>
-      </c>
-      <c r="L16" s="128"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="129"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="121">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s" s="114">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s" s="114">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s" s="115">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s" s="115">
-        <v>102</v>
-      </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="117"/>
-      <c r="K17" t="s" s="127">
-        <v>103</v>
-      </c>
-      <c r="L17" s="128"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" t="s" s="123">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="124"/>
+      <c r="Q13" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L16:M16"/>
+  <mergeCells count="17">
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -13242,7 +13060,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.354331" right="0.354331" top="0.19685" bottom="0.19685" header="0.23622" footer="0.23622"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -13260,22 +13077,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="161" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="161" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="161" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="161" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="161" customWidth="1"/>
-    <col min="7" max="8" width="4" style="161" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="161" customWidth="1"/>
-    <col min="10" max="10" width="4" style="161" customWidth="1"/>
-    <col min="11" max="11" width="9" style="161" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="161" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="161" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="161" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="161" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="161" customWidth="1"/>
-    <col min="17" max="17" width="9" style="161" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="161" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="160" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="160" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="160" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="160" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="160" customWidth="1"/>
+    <col min="7" max="8" width="4" style="160" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="160" customWidth="1"/>
+    <col min="10" max="10" width="4" style="160" customWidth="1"/>
+    <col min="11" max="11" width="9" style="160" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="160" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="160" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="160" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="160" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="160" customWidth="1"/>
+    <col min="17" max="17" width="9" style="160" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="160" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -13315,17 +13132,17 @@
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" t="s" s="70">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s" s="71">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73"/>
       <c r="I2" t="s" s="158">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J2" s="72"/>
       <c r="K2" s="73"/>
@@ -13348,7 +13165,7 @@
       </c>
       <c r="B3" s="78"/>
       <c r="C3" t="s" s="79">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
@@ -13537,10 +13354,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s" s="114">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s" s="159">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="161">
+        <v>145</v>
       </c>
       <c r="D9" t="s" s="115">
         <v>51</v>
@@ -13571,7 +13388,7 @@
         <v>119</v>
       </c>
       <c r="C10" t="s" s="114">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="115">
         <v>60</v>
@@ -13602,7 +13419,7 @@
         <v>124</v>
       </c>
       <c r="C11" t="s" s="114">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="115">
         <v>51</v>
@@ -13621,42 +13438,42 @@
       <c r="L11" t="s" s="127">
         <v>126</v>
       </c>
-      <c r="M11" s="160"/>
+      <c r="M11" s="162"/>
       <c r="N11" s="117"/>
       <c r="O11" s="117"/>
       <c r="P11" s="120"/>
       <c r="Q11" s="76"/>
     </row>
     <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="163">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="163">
+      <c r="B12" t="s" s="164">
         <v>127</v>
       </c>
-      <c r="C12" t="s" s="163">
-        <v>154</v>
-      </c>
-      <c r="D12" t="s" s="140">
+      <c r="C12" t="s" s="164">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s" s="165">
         <v>60</v>
       </c>
-      <c r="E12" s="141">
+      <c r="E12" s="166">
         <v>100</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
-      <c r="K12" t="s" s="163">
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168"/>
+      <c r="K12" t="s" s="164">
         <v>56</v>
       </c>
-      <c r="L12" s="166"/>
+      <c r="L12" s="169"/>
       <c r="M12" s="124"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="167"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="171"/>
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="121">
@@ -13666,7 +13483,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s" s="114">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s" s="115">
         <v>60</v>
@@ -13830,22 +13647,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="168" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="168" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="168" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="168" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="168" customWidth="1"/>
-    <col min="7" max="8" width="4" style="168" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="168" customWidth="1"/>
-    <col min="10" max="10" width="4" style="168" customWidth="1"/>
-    <col min="11" max="11" width="9" style="168" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="168" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="168" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="168" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="168" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="168" customWidth="1"/>
-    <col min="17" max="17" width="9" style="168" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="168" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="172" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="172" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="172" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="172" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="172" customWidth="1"/>
+    <col min="7" max="8" width="4" style="172" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="172" customWidth="1"/>
+    <col min="10" max="10" width="4" style="172" customWidth="1"/>
+    <col min="11" max="11" width="9" style="172" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="172" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="172" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="172" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="172" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="172" customWidth="1"/>
+    <col min="17" max="17" width="9" style="172" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="172" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -13885,17 +13702,17 @@
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" t="s" s="70">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s" s="71">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73"/>
       <c r="I2" t="s" s="158">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2" s="72"/>
       <c r="K2" s="73"/>
@@ -13918,7 +13735,7 @@
       </c>
       <c r="B3" s="78"/>
       <c r="C3" t="s" s="79">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
@@ -14107,10 +13924,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s" s="114">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s" s="159">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="161">
+        <v>154</v>
       </c>
       <c r="D9" t="s" s="115">
         <v>60</v>
@@ -14141,7 +13958,7 @@
         <v>119</v>
       </c>
       <c r="C10" t="s" s="114">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s" s="115">
         <v>60</v>
@@ -14172,7 +13989,7 @@
         <v>124</v>
       </c>
       <c r="C11" t="s" s="114">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s" s="115">
         <v>51</v>
@@ -14191,42 +14008,42 @@
       <c r="L11" t="s" s="127">
         <v>126</v>
       </c>
-      <c r="M11" s="160"/>
+      <c r="M11" s="162"/>
       <c r="N11" s="117"/>
       <c r="O11" s="117"/>
       <c r="P11" s="120"/>
       <c r="Q11" s="76"/>
     </row>
     <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="162">
+      <c r="A12" s="163">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="163">
+      <c r="B12" t="s" s="164">
         <v>127</v>
       </c>
-      <c r="C12" t="s" s="163">
-        <v>163</v>
-      </c>
-      <c r="D12" t="s" s="140">
+      <c r="C12" t="s" s="164">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s" s="165">
         <v>60</v>
       </c>
-      <c r="E12" s="141">
+      <c r="E12" s="166">
         <v>100</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
-      <c r="K12" t="s" s="163">
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168"/>
+      <c r="K12" t="s" s="164">
         <v>56</v>
       </c>
-      <c r="L12" s="166"/>
+      <c r="L12" s="169"/>
       <c r="M12" s="124"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="167"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="171"/>
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="121">
@@ -14236,7 +14053,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s" s="114">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s" s="115">
         <v>51</v>
@@ -14364,22 +14181,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="169" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="169" customWidth="1"/>
-    <col min="3" max="3" width="21.8516" style="169" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="169" customWidth="1"/>
-    <col min="5" max="6" width="4.5" style="169" customWidth="1"/>
-    <col min="7" max="8" width="4" style="169" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="169" customWidth="1"/>
-    <col min="10" max="10" width="4" style="169" customWidth="1"/>
-    <col min="11" max="11" width="9" style="169" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="169" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="169" customWidth="1"/>
-    <col min="14" max="14" width="12.1719" style="169" customWidth="1"/>
-    <col min="15" max="15" width="6.85156" style="169" customWidth="1"/>
-    <col min="16" max="16" width="9.67188" style="169" customWidth="1"/>
-    <col min="17" max="17" width="9" style="169" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="169" customWidth="1"/>
+    <col min="1" max="1" width="4.17188" style="173" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="173" customWidth="1"/>
+    <col min="3" max="3" width="21.8516" style="173" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="173" customWidth="1"/>
+    <col min="5" max="6" width="4.5" style="173" customWidth="1"/>
+    <col min="7" max="8" width="4" style="173" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="173" customWidth="1"/>
+    <col min="10" max="10" width="4" style="173" customWidth="1"/>
+    <col min="11" max="11" width="9" style="173" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="173" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="173" customWidth="1"/>
+    <col min="14" max="14" width="12.1719" style="173" customWidth="1"/>
+    <col min="15" max="15" width="6.85156" style="173" customWidth="1"/>
+    <col min="16" max="16" width="9.67188" style="173" customWidth="1"/>
+    <col min="17" max="17" width="9" style="173" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="173" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -14418,18 +14235,18 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
-      <c r="C2" t="s" s="170">
-        <v>165</v>
+      <c r="C2" t="s" s="174">
+        <v>159</v>
       </c>
       <c r="D2" t="s" s="71">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73"/>
       <c r="I2" t="s" s="158">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J2" s="72"/>
       <c r="K2" s="73"/>
@@ -14452,7 +14269,7 @@
       </c>
       <c r="B3" s="78"/>
       <c r="C3" t="s" s="79">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
@@ -14641,10 +14458,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s" s="114">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s" s="159">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="C9" t="s" s="161">
+        <v>163</v>
       </c>
       <c r="D9" t="s" s="115">
         <v>60</v>
@@ -14707,10 +14524,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="114">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s" s="114">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s" s="115">
         <v>51</v>
@@ -14740,10 +14557,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s" s="114">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s" s="114">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s" s="115">
         <v>60</v>
@@ -14797,7 +14614,7 @@
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
       <c r="P13" s="120"/>
-      <c r="Q13" s="171"/>
+      <c r="Q13" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="17">
